--- a/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>24.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
@@ -694,12 +694,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -709,7 +730,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -725,13 +820,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,129 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -606,7 +558,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -636,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +652,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -730,36 +682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -773,80 +725,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,36 +605,264 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>010861</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>长信企业优选一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>81.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.3155</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +897,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -682,36 +927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -720,6 +965,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603056-德邦股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0.51</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,100 +2226,6 @@
       </c>
       <c r="H8" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +2260,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1021,36 +2290,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1059,6 +2328,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
